--- a/Data_Dictionary_chirag.xlsx
+++ b/Data_Dictionary_chirag.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soulsrfer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soulsrfer\Desktop\ISM-2023\core java\InHouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A692823-243F-486A-9C89-D0408D707C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC399DFE-0AC7-4EEF-9378-B8F8A0710808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="2175" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="59">
   <si>
     <t>role</t>
   </si>
@@ -187,6 +187,21 @@
   </si>
   <si>
     <t>user_lang</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>address_id</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>pincode</t>
   </si>
 </sst>
 </file>
@@ -246,16 +261,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,42 +571,60 @@
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -598,52 +632,52 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>26</v>
@@ -651,19 +685,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
@@ -671,7 +702,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -685,13 +716,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -699,13 +730,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -713,24 +744,24 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -738,13 +769,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -752,13 +783,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -766,306 +797,317 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="5">
+        <v>25</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C22">
-        <v>255</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23">
-        <v>255</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="C29" s="5">
+        <v>50</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="5">
+        <v>25</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="5">
+        <v>25</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="5">
+        <v>6</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="5">
+        <v>25</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="F38" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30">
-        <v>25</v>
-      </c>
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
         <v>24</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>25</v>
-      </c>
-      <c r="D31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="50" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37">
-        <v>25</v>
-      </c>
-      <c r="D37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <v>25</v>
-      </c>
-      <c r="D38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44">
-        <v>25</v>
-      </c>
-      <c r="D44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45">
-        <v>25</v>
-      </c>
-      <c r="D45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51">
-        <v>25</v>
-      </c>
-      <c r="D51" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52">
-        <v>25</v>
-      </c>
-      <c r="D52" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" t="s">
-        <v>43</v>
+      <c r="F52" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
         <v>18</v>
@@ -1074,65 +1116,62 @@
         <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A56" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59">
-        <v>25</v>
-      </c>
-      <c r="D59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" t="s">
-        <v>39</v>
-      </c>
-      <c r="G59" t="s">
-        <v>27</v>
+      <c r="F59" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
@@ -1144,12 +1183,15 @@
         <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
@@ -1163,60 +1205,57 @@
       <c r="E61" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A64" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67">
-        <v>25</v>
-      </c>
-      <c r="D67" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" t="s">
-        <v>39</v>
-      </c>
-      <c r="G67" t="s">
-        <v>27</v>
+      <c r="F67" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
@@ -1228,12 +1267,15 @@
         <v>42</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
@@ -1247,26 +1289,131 @@
       <c r="E69" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A73" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>25</v>
+      </c>
+      <c r="D77" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78">
+        <v>25</v>
+      </c>
+      <c r="D78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A56:B56"/>
+  <mergeCells count="10">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A65:B65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
